--- a/data/pca/factorExposure/factorExposure_2009-08-06.xlsx
+++ b/data/pca/factorExposure/factorExposure_2009-08-06.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="106">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="108">
   <si>
     <t>factor1</t>
   </si>
@@ -23,6 +23,12 @@
   </si>
   <si>
     <t>factor3</t>
+  </si>
+  <si>
+    <t>factor4</t>
+  </si>
+  <si>
+    <t>factor5</t>
   </si>
   <si>
     <t>Constellation software inc/can</t>
@@ -689,13 +695,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D104"/>
+  <dimension ref="A1:F104"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:6">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -705,24 +711,36 @@
       <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:4">
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
       <c r="A2" s="1" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B2">
-        <v>-0.01723986948244687</v>
+        <v>0.01685648740614971</v>
       </c>
       <c r="C2">
-        <v>-0.001693761473042246</v>
+        <v>0.001012895486779647</v>
       </c>
       <c r="D2">
-        <v>-0.005575523728953396</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4">
+        <v>-0.009545478662025174</v>
+      </c>
+      <c r="E2">
+        <v>-0.002007209134699203</v>
+      </c>
+      <c r="F2">
+        <v>0.01433904804938612</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
       <c r="A3" s="1" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B3">
         <v>0</v>
@@ -733,24 +751,36 @@
       <c r="D3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:4">
+      <c r="E3">
+        <v>0</v>
+      </c>
+      <c r="F3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
       <c r="A4" s="1" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B4">
-        <v>-0.09400379265553292</v>
+        <v>0.09267187517220493</v>
       </c>
       <c r="C4">
-        <v>-0.02080330282442116</v>
+        <v>0.01456933662997414</v>
       </c>
       <c r="D4">
-        <v>-0.06771441627407468</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4">
+        <v>-0.08409470223201719</v>
+      </c>
+      <c r="E4">
+        <v>-0.02870196762854053</v>
+      </c>
+      <c r="F4">
+        <v>-0.03312261338708068</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
       <c r="A5" s="1" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -761,192 +791,276 @@
       <c r="D5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:4">
+      <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
       <c r="A6" s="1" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B6">
-        <v>-0.1496993735171665</v>
+        <v>0.1600702469713284</v>
       </c>
       <c r="C6">
-        <v>-0.02799421938734762</v>
+        <v>0.02735771685672981</v>
       </c>
       <c r="D6">
-        <v>0.02752928637147327</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4">
+        <v>0.02553385623933793</v>
+      </c>
+      <c r="E6">
+        <v>-0.00898714184717146</v>
+      </c>
+      <c r="F6">
+        <v>-0.04048217781644986</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
       <c r="A7" s="1" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B7">
-        <v>-0.06216876173721106</v>
+        <v>0.06310077029723175</v>
       </c>
       <c r="C7">
-        <v>-0.00286600261693253</v>
+        <v>-0.001706102753846835</v>
       </c>
       <c r="D7">
-        <v>-0.04201778033486016</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4">
+        <v>-0.05198471039733735</v>
+      </c>
+      <c r="E7">
+        <v>-0.01147009896980168</v>
+      </c>
+      <c r="F7">
+        <v>-0.04689689511914716</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
       <c r="A8" s="1" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B8">
-        <v>-0.06326961068122428</v>
+        <v>0.05766546573388869</v>
       </c>
       <c r="C8">
-        <v>0.01070102106703415</v>
+        <v>-0.01300007313968046</v>
       </c>
       <c r="D8">
-        <v>-0.02359082981113676</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4">
+        <v>-0.03176971827931643</v>
+      </c>
+      <c r="E8">
+        <v>-0.01762985101483305</v>
+      </c>
+      <c r="F8">
+        <v>0.02498353231660377</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6">
       <c r="A9" s="1" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B9">
-        <v>-0.07243251380041771</v>
+        <v>0.07066439420190244</v>
       </c>
       <c r="C9">
-        <v>-0.01708480319909946</v>
+        <v>0.01022140188670568</v>
       </c>
       <c r="D9">
-        <v>-0.0695019691429996</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4">
+        <v>-0.08704331171817448</v>
+      </c>
+      <c r="E9">
+        <v>-0.02404410292845678</v>
+      </c>
+      <c r="F9">
+        <v>-0.04711019906658629</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6">
       <c r="A10" s="1" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B10">
-        <v>-0.08419556441242214</v>
+        <v>0.08975559703331669</v>
       </c>
       <c r="C10">
-        <v>-0.01304210090800239</v>
+        <v>0.02083433753067005</v>
       </c>
       <c r="D10">
-        <v>0.1653975053361532</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4">
+        <v>0.1614005114346271</v>
+      </c>
+      <c r="E10">
+        <v>0.0316280627859749</v>
+      </c>
+      <c r="F10">
+        <v>0.05738871647844306</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6">
       <c r="A11" s="1" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B11">
-        <v>-0.09198184436337639</v>
+        <v>0.08739371455703147</v>
       </c>
       <c r="C11">
-        <v>-0.0179642631418351</v>
+        <v>0.01056142713387446</v>
       </c>
       <c r="D11">
-        <v>-0.09994109828869384</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4">
+        <v>-0.1176229501350692</v>
+      </c>
+      <c r="E11">
+        <v>-0.04642058786658406</v>
+      </c>
+      <c r="F11">
+        <v>-0.02242078282633916</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6">
       <c r="A12" s="1" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B12">
-        <v>-0.09764524967417969</v>
+        <v>0.09062879698501168</v>
       </c>
       <c r="C12">
-        <v>-0.01582153579595548</v>
+        <v>0.007856748186643267</v>
       </c>
       <c r="D12">
-        <v>-0.1042073557714139</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4">
+        <v>-0.1323008428760569</v>
+      </c>
+      <c r="E12">
+        <v>-0.04577753037605216</v>
+      </c>
+      <c r="F12">
+        <v>-0.03142666730347709</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6">
       <c r="A13" s="1" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B13">
-        <v>-0.04411142645575707</v>
+        <v>0.04247931553184415</v>
       </c>
       <c r="C13">
-        <v>-0.0058686909944952</v>
+        <v>0.002534194802471824</v>
       </c>
       <c r="D13">
-        <v>-0.03080923020360691</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4">
+        <v>-0.05289616720977901</v>
+      </c>
+      <c r="E13">
+        <v>0.003620117437647036</v>
+      </c>
+      <c r="F13">
+        <v>-0.001888302823590459</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6">
       <c r="A14" s="1" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="B14">
-        <v>-0.01946901536557324</v>
+        <v>0.02369824356658347</v>
       </c>
       <c r="C14">
-        <v>-0.0151832082547403</v>
+        <v>0.01373160995166483</v>
       </c>
       <c r="D14">
-        <v>-0.02619656834963271</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4">
+        <v>-0.03316379997216678</v>
+      </c>
+      <c r="E14">
+        <v>-0.0186779897286212</v>
+      </c>
+      <c r="F14">
+        <v>-0.01350236288780427</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6">
       <c r="A15" s="1" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="B15">
-        <v>-0.03434522802317289</v>
+        <v>0.03299140896589972</v>
       </c>
       <c r="C15">
-        <v>-0.007762333118187185</v>
+        <v>0.004714494608866057</v>
       </c>
       <c r="D15">
-        <v>-0.03159656036276687</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4">
+        <v>-0.04481196205359956</v>
+      </c>
+      <c r="E15">
+        <v>-0.006004903727759053</v>
+      </c>
+      <c r="F15">
+        <v>-0.02524567110199376</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6">
       <c r="A16" s="1" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B16">
-        <v>-0.07708064765856017</v>
+        <v>0.0729679186693481</v>
       </c>
       <c r="C16">
-        <v>-0.008676149134251278</v>
+        <v>0.001077024850500893</v>
       </c>
       <c r="D16">
-        <v>-0.1020184143430171</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4">
+        <v>-0.1285977117480434</v>
+      </c>
+      <c r="E16">
+        <v>-0.06073268879778274</v>
+      </c>
+      <c r="F16">
+        <v>-0.02715732458023281</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6">
       <c r="A17" s="1" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="B17">
-        <v>0</v>
+        <v>-0.0002978993524389492</v>
       </c>
       <c r="C17">
-        <v>0</v>
+        <v>-0.0002495404316581872</v>
       </c>
       <c r="D17">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4">
+        <v>-0.001111731777302569</v>
+      </c>
+      <c r="E17">
+        <v>-0.00102698735190799</v>
+      </c>
+      <c r="F17">
+        <v>0.002473443323776351</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6">
       <c r="A18" s="1" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="B18">
-        <v>-0.01787822288184973</v>
+        <v>0.03824970880538257</v>
       </c>
       <c r="C18">
-        <v>0.00318812474695438</v>
+        <v>-0.00291793852015196</v>
       </c>
       <c r="D18">
-        <v>-0.02846507389981629</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4">
+        <v>-0.01518562096720281</v>
+      </c>
+      <c r="E18">
+        <v>0.008263688368354949</v>
+      </c>
+      <c r="F18">
+        <v>0.009161274149587935</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6">
       <c r="A19" s="1" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="B19">
         <v>0</v>
@@ -957,108 +1071,156 @@
       <c r="D19">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:4">
+      <c r="E19">
+        <v>0</v>
+      </c>
+      <c r="F19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6">
       <c r="A20" s="1" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="B20">
-        <v>-0.06559685335829592</v>
+        <v>0.06253569384508399</v>
       </c>
       <c r="C20">
-        <v>-0.006719632243688143</v>
+        <v>0.0003819426629251151</v>
       </c>
       <c r="D20">
-        <v>-0.05401971591407573</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4">
+        <v>-0.0775461821599016</v>
+      </c>
+      <c r="E20">
+        <v>-0.05597164262948081</v>
+      </c>
+      <c r="F20">
+        <v>-0.02958095301735568</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6">
       <c r="A21" s="1" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="B21">
-        <v>-0.04019574214804707</v>
+        <v>0.04113921332530263</v>
       </c>
       <c r="C21">
-        <v>-0.009944870109542396</v>
+        <v>0.006361577041440704</v>
       </c>
       <c r="D21">
-        <v>-0.03160881643327125</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4">
+        <v>-0.0387900074073137</v>
+      </c>
+      <c r="E21">
+        <v>0.0002420758257134887</v>
+      </c>
+      <c r="F21">
+        <v>0.0234633451367705</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6">
       <c r="A22" s="1" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="B22">
-        <v>-0.04054080899272291</v>
+        <v>0.04301050632524892</v>
       </c>
       <c r="C22">
-        <v>-0.001084796307271235</v>
+        <v>0.0009695304392677473</v>
       </c>
       <c r="D22">
-        <v>0.009088233982869771</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4">
+        <v>-0.002945873634799919</v>
+      </c>
+      <c r="E22">
+        <v>-0.0353171597165418</v>
+      </c>
+      <c r="F22">
+        <v>0.04102797475290728</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6">
       <c r="A23" s="1" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="B23">
-        <v>-0.04050399554682052</v>
+        <v>0.04298636827169273</v>
       </c>
       <c r="C23">
-        <v>-0.001074770780608225</v>
+        <v>0.0009609234783561326</v>
       </c>
       <c r="D23">
-        <v>0.009067491153196789</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4">
+        <v>-0.002960622320518586</v>
+      </c>
+      <c r="E23">
+        <v>-0.03549956452881368</v>
+      </c>
+      <c r="F23">
+        <v>0.04098911651159665</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6">
       <c r="A24" s="1" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="B24">
-        <v>-0.0836452119438998</v>
+        <v>0.0791190023947856</v>
       </c>
       <c r="C24">
-        <v>-0.008954707156974957</v>
+        <v>0.001781527647958067</v>
       </c>
       <c r="D24">
-        <v>-0.1064701588593917</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4">
+        <v>-0.1207974393211381</v>
+      </c>
+      <c r="E24">
+        <v>-0.04883191225225948</v>
+      </c>
+      <c r="F24">
+        <v>-0.02943678679966004</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6">
       <c r="A25" s="1" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="B25">
-        <v>-0.08858864297230766</v>
+        <v>0.08415223154294128</v>
       </c>
       <c r="C25">
-        <v>-0.01148104358554661</v>
+        <v>0.004362940337973167</v>
       </c>
       <c r="D25">
-        <v>-0.09302696681152704</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4">
+        <v>-0.1101596215249899</v>
+      </c>
+      <c r="E25">
+        <v>-0.0323568643595795</v>
+      </c>
+      <c r="F25">
+        <v>-0.02620508554288322</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6">
       <c r="A26" s="1" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="B26">
-        <v>-0.05921804906442678</v>
+        <v>0.05899284055005982</v>
       </c>
       <c r="C26">
-        <v>-0.01807922909912694</v>
+        <v>0.01455539258204967</v>
       </c>
       <c r="D26">
-        <v>-0.0194658944320115</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4">
+        <v>-0.04287767226557437</v>
+      </c>
+      <c r="E26">
+        <v>-0.0300702404832837</v>
+      </c>
+      <c r="F26">
+        <v>0.005743100745860547</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6">
       <c r="A27" s="1" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="B27">
         <v>0</v>
@@ -1069,150 +1231,216 @@
       <c r="D27">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:4">
+      <c r="E27">
+        <v>0</v>
+      </c>
+      <c r="F27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6">
       <c r="A28" s="1" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B28">
-        <v>-0.132212817604428</v>
+        <v>0.141762460573668</v>
       </c>
       <c r="C28">
-        <v>-0.01181798484663693</v>
+        <v>0.02233903141654673</v>
       </c>
       <c r="D28">
-        <v>0.2725090046944939</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4">
+        <v>0.2602572306226013</v>
+      </c>
+      <c r="E28">
+        <v>0.06768483421392625</v>
+      </c>
+      <c r="F28">
+        <v>-0.003622197011318242</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6">
       <c r="A29" s="1" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="B29">
-        <v>-0.02567756371314905</v>
+        <v>0.02852591117788008</v>
       </c>
       <c r="C29">
-        <v>-0.009820748728773806</v>
+        <v>0.008773655943646498</v>
       </c>
       <c r="D29">
-        <v>-0.02418657707075101</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4">
+        <v>-0.03095704809241934</v>
+      </c>
+      <c r="E29">
+        <v>-0.01359103301853451</v>
+      </c>
+      <c r="F29">
+        <v>0.01295969767680891</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6">
       <c r="A30" s="1" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="B30">
-        <v>-0.0646879280206596</v>
+        <v>0.05865593028402408</v>
       </c>
       <c r="C30">
-        <v>-0.01035875587737022</v>
+        <v>0.00267422779530856</v>
       </c>
       <c r="D30">
-        <v>-0.06365535677588703</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4">
+        <v>-0.08798629080424408</v>
+      </c>
+      <c r="E30">
+        <v>-0.01368182200554824</v>
+      </c>
+      <c r="F30">
+        <v>-0.07984671896127389</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6">
       <c r="A31" s="1" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="B31">
-        <v>-0.05106943734782834</v>
+        <v>0.05124366700054926</v>
       </c>
       <c r="C31">
-        <v>-0.01720231262441014</v>
+        <v>0.0158358465483436</v>
       </c>
       <c r="D31">
-        <v>-0.02094120122798963</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4">
+        <v>-0.0244656607775897</v>
+      </c>
+      <c r="E31">
+        <v>-0.02875831798270745</v>
+      </c>
+      <c r="F31">
+        <v>0.001592326722286675</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6">
       <c r="A32" s="1" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="B32">
-        <v>-0.04771203868089349</v>
+        <v>0.05127512487785665</v>
       </c>
       <c r="C32">
-        <v>-0.002284928979231066</v>
+        <v>-0.001714974635915625</v>
       </c>
       <c r="D32">
-        <v>-0.02043451912386912</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4">
+        <v>-0.03547528235098629</v>
+      </c>
+      <c r="E32">
+        <v>-0.03401817120824765</v>
+      </c>
+      <c r="F32">
+        <v>-0.002273372826379894</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6">
       <c r="A33" s="1" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="B33">
-        <v>-0.09230455378678286</v>
+        <v>0.08913943403686421</v>
       </c>
       <c r="C33">
-        <v>-0.01415237534210606</v>
+        <v>0.006493891256309299</v>
       </c>
       <c r="D33">
-        <v>-0.08010885493884164</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4">
+        <v>-0.1029156718387986</v>
+      </c>
+      <c r="E33">
+        <v>-0.04599502951358977</v>
+      </c>
+      <c r="F33">
+        <v>-0.03940759439053029</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6">
       <c r="A34" s="1" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="B34">
-        <v>-0.07046500289760114</v>
+        <v>0.06765435363781368</v>
       </c>
       <c r="C34">
-        <v>-0.01619732897753797</v>
+        <v>0.01003859095312809</v>
       </c>
       <c r="D34">
-        <v>-0.0872047510786932</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4">
+        <v>-0.1097136567307825</v>
+      </c>
+      <c r="E34">
+        <v>-0.03503252655533792</v>
+      </c>
+      <c r="F34">
+        <v>-0.03269124136975338</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6">
       <c r="A35" s="1" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="B35">
-        <v>-0.02399118195037898</v>
+        <v>0.02608262514799113</v>
       </c>
       <c r="C35">
-        <v>-0.00295817475481661</v>
+        <v>0.002725940822819903</v>
       </c>
       <c r="D35">
-        <v>-0.00679918261928221</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4">
+        <v>-0.01179477793974443</v>
+      </c>
+      <c r="E35">
+        <v>-0.01265030725194911</v>
+      </c>
+      <c r="F35">
+        <v>-0.001082818237069111</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6">
       <c r="A36" s="1" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B36">
-        <v>-0.02615091400427755</v>
+        <v>0.02750149596730569</v>
       </c>
       <c r="C36">
-        <v>-0.007853262857533837</v>
+        <v>0.006772732484035196</v>
       </c>
       <c r="D36">
-        <v>-0.03845562259431218</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4">
+        <v>-0.03886230700896882</v>
+      </c>
+      <c r="E36">
+        <v>-0.01611036163666505</v>
+      </c>
+      <c r="F36">
+        <v>-0.01476678643652379</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6">
       <c r="A37" s="1" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="B37">
-        <v>0</v>
+        <v>0.0001946298193938671</v>
       </c>
       <c r="C37">
-        <v>0</v>
+        <v>-0.000554239925856975</v>
       </c>
       <c r="D37">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="38" spans="1:4">
+        <v>-0.001944036593525619</v>
+      </c>
+      <c r="E37">
+        <v>0.0007211329179370147</v>
+      </c>
+      <c r="F37">
+        <v>0.002251598349586215</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6">
       <c r="A38" s="1" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="B38">
         <v>0</v>
@@ -1223,52 +1451,76 @@
       <c r="D38">
         <v>0</v>
       </c>
-    </row>
-    <row r="39" spans="1:4">
+      <c r="E38">
+        <v>0</v>
+      </c>
+      <c r="F38">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6">
       <c r="A39" s="1" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="B39">
-        <v>-0.1157215205853927</v>
+        <v>0.1035531128464937</v>
       </c>
       <c r="C39">
-        <v>-0.02483909238042186</v>
+        <v>0.01581445349345317</v>
       </c>
       <c r="D39">
-        <v>-0.1426438380034496</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4">
+        <v>-0.1536607451550412</v>
+      </c>
+      <c r="E39">
+        <v>-0.0591702269729741</v>
+      </c>
+      <c r="F39">
+        <v>-0.03055045437088706</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6">
       <c r="A40" s="1" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="B40">
-        <v>-0.03915190876865405</v>
+        <v>0.0434433253307188</v>
       </c>
       <c r="C40">
-        <v>-0.009522406123952481</v>
+        <v>0.007438924983722634</v>
       </c>
       <c r="D40">
-        <v>-0.01298771617912316</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4">
+        <v>-0.03090434926278109</v>
+      </c>
+      <c r="E40">
+        <v>-0.00183455316501496</v>
+      </c>
+      <c r="F40">
+        <v>0.01897089792531615</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6">
       <c r="A41" s="1" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="B41">
-        <v>-0.02503861862455981</v>
+        <v>0.02761479731199497</v>
       </c>
       <c r="C41">
-        <v>-0.007125652007391297</v>
+        <v>0.006864831250783378</v>
       </c>
       <c r="D41">
-        <v>-0.009976806994456928</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4">
+        <v>-0.01033861699930905</v>
+      </c>
+      <c r="E41">
+        <v>-0.01169723892412463</v>
+      </c>
+      <c r="F41">
+        <v>0.005982138087156723</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6">
       <c r="A42" s="1" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="B42">
         <v>0</v>
@@ -1279,38 +1531,56 @@
       <c r="D42">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="1:4">
+      <c r="E42">
+        <v>0</v>
+      </c>
+      <c r="F42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6">
       <c r="A43" s="1" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="B43">
-        <v>-0.04210589666309672</v>
+        <v>0.04076935377146652</v>
       </c>
       <c r="C43">
-        <v>-0.008241882465541554</v>
+        <v>0.007259244600110262</v>
       </c>
       <c r="D43">
-        <v>-0.01510982755811943</v>
-      </c>
-    </row>
-    <row r="44" spans="1:4">
+        <v>-0.01920317443564029</v>
+      </c>
+      <c r="E43">
+        <v>-0.0256117028745172</v>
+      </c>
+      <c r="F43">
+        <v>0.01337646737590343</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6">
       <c r="A44" s="1" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="B44">
-        <v>-0.0725073258464014</v>
+        <v>0.07874567796218909</v>
       </c>
       <c r="C44">
-        <v>-0.02649008552197066</v>
+        <v>0.01894278789443488</v>
       </c>
       <c r="D44">
-        <v>-0.08051512279283596</v>
-      </c>
-    </row>
-    <row r="45" spans="1:4">
+        <v>-0.09598596565159549</v>
+      </c>
+      <c r="E44">
+        <v>-0.05999504279222174</v>
+      </c>
+      <c r="F44">
+        <v>-0.1592346993432155</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6">
       <c r="A45" s="1" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B45">
         <v>0</v>
@@ -1321,80 +1591,116 @@
       <c r="D45">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:4">
+      <c r="E45">
+        <v>0</v>
+      </c>
+      <c r="F45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6">
       <c r="A46" s="1" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="B46">
-        <v>-0.02162696012306704</v>
+        <v>0.02352967610453052</v>
       </c>
       <c r="C46">
-        <v>-0.003886870148377269</v>
+        <v>0.003392600228778935</v>
       </c>
       <c r="D46">
-        <v>-0.00555112309158753</v>
-      </c>
-    </row>
-    <row r="47" spans="1:4">
+        <v>-0.01267053230267952</v>
+      </c>
+      <c r="E46">
+        <v>-0.02609196724914575</v>
+      </c>
+      <c r="F46">
+        <v>0.007119735369248436</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6">
       <c r="A47" s="1" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B47">
-        <v>-0.05297013649578153</v>
+        <v>0.05297015176986136</v>
       </c>
       <c r="C47">
-        <v>-0.004723974181316793</v>
+        <v>0.003981533267423332</v>
       </c>
       <c r="D47">
-        <v>-0.008363314851461502</v>
-      </c>
-    </row>
-    <row r="48" spans="1:4">
+        <v>-0.01099864546486618</v>
+      </c>
+      <c r="E47">
+        <v>-0.02330615990114962</v>
+      </c>
+      <c r="F47">
+        <v>0.03216480060993164</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6">
       <c r="A48" s="1" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="B48">
-        <v>-0.04891737692735933</v>
+        <v>0.05033710143037912</v>
       </c>
       <c r="C48">
-        <v>-0.005229175150927466</v>
+        <v>0.002145758124145723</v>
       </c>
       <c r="D48">
-        <v>-0.0418628403289841</v>
-      </c>
-    </row>
-    <row r="49" spans="1:4">
+        <v>-0.04970132852571297</v>
+      </c>
+      <c r="E48">
+        <v>0.005417026509625405</v>
+      </c>
+      <c r="F48">
+        <v>-0.009081336385039987</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6">
       <c r="A49" s="1" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="B49">
-        <v>-0.2026661551513648</v>
+        <v>0.2006566654333694</v>
       </c>
       <c r="C49">
-        <v>-0.0219364857062132</v>
+        <v>0.01928544472748481</v>
       </c>
       <c r="D49">
-        <v>0.01663669557197657</v>
-      </c>
-    </row>
-    <row r="50" spans="1:4">
+        <v>0.006825428404389394</v>
+      </c>
+      <c r="E49">
+        <v>-0.03142279397126502</v>
+      </c>
+      <c r="F49">
+        <v>-0.04106862207533837</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6">
       <c r="A50" s="1" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="B50">
-        <v>-0.04999168269931287</v>
+        <v>0.05175009342390741</v>
       </c>
       <c r="C50">
-        <v>-0.01326746721545636</v>
+        <v>0.01152920360074768</v>
       </c>
       <c r="D50">
-        <v>-0.02086443090188447</v>
-      </c>
-    </row>
-    <row r="51" spans="1:4">
+        <v>-0.02330573433344003</v>
+      </c>
+      <c r="E50">
+        <v>-0.02971710044566446</v>
+      </c>
+      <c r="F50">
+        <v>-0.009619373093431551</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6">
       <c r="A51" s="1" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="B51">
         <v>0</v>
@@ -1405,80 +1711,116 @@
       <c r="D51">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="1:4">
+      <c r="E51">
+        <v>0</v>
+      </c>
+      <c r="F51">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6">
       <c r="A52" s="1" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="B52">
-        <v>-0.1563901077994144</v>
+        <v>0.1501828784598131</v>
       </c>
       <c r="C52">
-        <v>-0.02034191246346128</v>
+        <v>0.01834105633106626</v>
       </c>
       <c r="D52">
-        <v>-0.04916188422644154</v>
-      </c>
-    </row>
-    <row r="53" spans="1:4">
+        <v>-0.04149559904657624</v>
+      </c>
+      <c r="E52">
+        <v>-0.02160929115090353</v>
+      </c>
+      <c r="F52">
+        <v>-0.04366723050530866</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6">
       <c r="A53" s="1" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="B53">
-        <v>-0.1734021549106415</v>
+        <v>0.1705985364429458</v>
       </c>
       <c r="C53">
-        <v>-0.02012714922019201</v>
+        <v>0.0204491000797904</v>
       </c>
       <c r="D53">
-        <v>-0.01253759004956564</v>
-      </c>
-    </row>
-    <row r="54" spans="1:4">
+        <v>-0.004590049266442906</v>
+      </c>
+      <c r="E53">
+        <v>-0.02870843884048602</v>
+      </c>
+      <c r="F53">
+        <v>-0.07287032226930108</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6">
       <c r="A54" s="1" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="B54">
-        <v>-0.0177555107697632</v>
+        <v>0.02045326075555817</v>
       </c>
       <c r="C54">
-        <v>-0.01262378012857203</v>
+        <v>0.01108074602238453</v>
       </c>
       <c r="D54">
-        <v>-0.02702479449325637</v>
-      </c>
-    </row>
-    <row r="55" spans="1:4">
+        <v>-0.03433353009775045</v>
+      </c>
+      <c r="E54">
+        <v>-0.02187398080797719</v>
+      </c>
+      <c r="F54">
+        <v>0.00171336944799992</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6">
       <c r="A55" s="1" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="B55">
-        <v>-0.1158836075373455</v>
+        <v>0.115489459586232</v>
       </c>
       <c r="C55">
-        <v>-0.01795732626114779</v>
+        <v>0.01805191573718595</v>
       </c>
       <c r="D55">
-        <v>-0.01136270456726369</v>
-      </c>
-    </row>
-    <row r="56" spans="1:4">
+        <v>-0.007430519613003229</v>
+      </c>
+      <c r="E55">
+        <v>-0.02408671978428926</v>
+      </c>
+      <c r="F55">
+        <v>-0.04628354270734272</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6">
       <c r="A56" s="1" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="B56">
-        <v>-0.1797591393077013</v>
+        <v>0.1769675784414586</v>
       </c>
       <c r="C56">
-        <v>-0.01766337819398335</v>
+        <v>0.01849593590002041</v>
       </c>
       <c r="D56">
-        <v>-0.009190064168897486</v>
-      </c>
-    </row>
-    <row r="57" spans="1:4">
+        <v>0.002799981865862709</v>
+      </c>
+      <c r="E56">
+        <v>-0.03251240050593496</v>
+      </c>
+      <c r="F56">
+        <v>-0.0528621330535777</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6">
       <c r="A57" s="1" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="B57">
         <v>0</v>
@@ -1489,262 +1831,376 @@
       <c r="D57">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="1:4">
+      <c r="E57">
+        <v>0</v>
+      </c>
+      <c r="F57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6">
       <c r="A58" s="1" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="B58">
-        <v>-0.04850516362692807</v>
+        <v>0.04502199646794475</v>
       </c>
       <c r="C58">
-        <v>-0.005946067329428986</v>
+        <v>-0.0002423584347525036</v>
       </c>
       <c r="D58">
-        <v>-0.05664920834031021</v>
-      </c>
-    </row>
-    <row r="59" spans="1:4">
+        <v>-0.07251692823727036</v>
+      </c>
+      <c r="E58">
+        <v>-0.03342826523031539</v>
+      </c>
+      <c r="F58">
+        <v>0.03629655925471482</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6">
       <c r="A59" s="1" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="B59">
-        <v>-0.1619355804730239</v>
+        <v>0.167445224684774</v>
       </c>
       <c r="C59">
-        <v>-0.01355102528983029</v>
+        <v>0.02283348038682695</v>
       </c>
       <c r="D59">
-        <v>0.2238768611407723</v>
-      </c>
-    </row>
-    <row r="60" spans="1:4">
+        <v>0.2180433710851492</v>
+      </c>
+      <c r="E59">
+        <v>0.04761108051404477</v>
+      </c>
+      <c r="F59">
+        <v>0.03451010462031537</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6">
       <c r="A60" s="1" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="B60">
-        <v>-0.2378330526078674</v>
+        <v>0.2315875814988201</v>
       </c>
       <c r="C60">
-        <v>-0.001746013795364583</v>
+        <v>-0.001500845180455947</v>
       </c>
       <c r="D60">
-        <v>-0.04458438250388317</v>
-      </c>
-    </row>
-    <row r="61" spans="1:4">
+        <v>-0.03986924477351371</v>
+      </c>
+      <c r="E60">
+        <v>-0.00708251073088689</v>
+      </c>
+      <c r="F60">
+        <v>0.0004914492313460164</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6">
       <c r="A61" s="1" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="B61">
-        <v>-0.08733542778980619</v>
+        <v>0.07928001546648959</v>
       </c>
       <c r="C61">
-        <v>-0.01826150704838188</v>
+        <v>0.01125171960568985</v>
       </c>
       <c r="D61">
-        <v>-0.09963349478750225</v>
-      </c>
-    </row>
-    <row r="62" spans="1:4">
+        <v>-0.1174491337302901</v>
+      </c>
+      <c r="E61">
+        <v>-0.0386821830953147</v>
+      </c>
+      <c r="F61">
+        <v>-0.0132065379572348</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6">
       <c r="A62" s="1" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="B62">
-        <v>-0.1703244587589361</v>
+        <v>0.1684907360873254</v>
       </c>
       <c r="C62">
-        <v>-0.0214500361749056</v>
+        <v>0.02103212261993228</v>
       </c>
       <c r="D62">
-        <v>-0.005522605830524675</v>
-      </c>
-    </row>
-    <row r="63" spans="1:4">
+        <v>-0.004367794701004016</v>
+      </c>
+      <c r="E62">
+        <v>-0.03206528550512468</v>
+      </c>
+      <c r="F62">
+        <v>-0.03744742173255117</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6">
       <c r="A63" s="1" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="B63">
-        <v>-0.04334663828336566</v>
+        <v>0.04599252322884734</v>
       </c>
       <c r="C63">
-        <v>-0.00601551853276215</v>
+        <v>0.001762654297705407</v>
       </c>
       <c r="D63">
-        <v>-0.04450207841338419</v>
-      </c>
-    </row>
-    <row r="64" spans="1:4">
+        <v>-0.0596077371335865</v>
+      </c>
+      <c r="E63">
+        <v>-0.02408329710342163</v>
+      </c>
+      <c r="F63">
+        <v>-0.003326528373952209</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6">
       <c r="A64" s="1" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="B64">
-        <v>-0.1125609895618509</v>
+        <v>0.1103791786847947</v>
       </c>
       <c r="C64">
-        <v>-0.01527294544090918</v>
+        <v>0.01170132162422884</v>
       </c>
       <c r="D64">
-        <v>-0.03245605379999834</v>
-      </c>
-    </row>
-    <row r="65" spans="1:4">
+        <v>-0.04364447998215822</v>
+      </c>
+      <c r="E64">
+        <v>-0.02270980804164631</v>
+      </c>
+      <c r="F64">
+        <v>-0.0261858060715963</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6">
       <c r="A65" s="1" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="B65">
-        <v>-0.1402426427066614</v>
+        <v>0.1513578262837735</v>
       </c>
       <c r="C65">
-        <v>-0.03378175706054728</v>
+        <v>0.03445492943246221</v>
       </c>
       <c r="D65">
-        <v>0.0503264971042699</v>
-      </c>
-    </row>
-    <row r="66" spans="1:4">
+        <v>0.04552740629518364</v>
+      </c>
+      <c r="E65">
+        <v>-0.004733675317454526</v>
+      </c>
+      <c r="F65">
+        <v>-0.03477898608116545</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6">
       <c r="A66" s="1" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="B66">
-        <v>-0.1389933000240814</v>
+        <v>0.1236756999168235</v>
       </c>
       <c r="C66">
-        <v>-0.02310365982892187</v>
+        <v>0.01395675617915628</v>
       </c>
       <c r="D66">
-        <v>-0.1215955091385539</v>
-      </c>
-    </row>
-    <row r="67" spans="1:4">
+        <v>-0.1416786114254412</v>
+      </c>
+      <c r="E66">
+        <v>-0.06486098659856146</v>
+      </c>
+      <c r="F66">
+        <v>-0.03385305813351199</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6">
       <c r="A67" s="1" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="B67">
-        <v>-0.06298786535639216</v>
+        <v>0.05639731848837312</v>
       </c>
       <c r="C67">
-        <v>-0.005606835257150554</v>
+        <v>0.002806718005645584</v>
       </c>
       <c r="D67">
-        <v>-0.05410330266425942</v>
-      </c>
-    </row>
-    <row r="68" spans="1:4">
+        <v>-0.05598046915612757</v>
+      </c>
+      <c r="E67">
+        <v>-0.01674556276488307</v>
+      </c>
+      <c r="F67">
+        <v>0.02953326829464743</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6">
       <c r="A68" s="1" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="B68">
-        <v>-0.1055599980295369</v>
+        <v>0.1169392998100385</v>
       </c>
       <c r="C68">
-        <v>-0.02187021510790841</v>
+        <v>0.03312449811699007</v>
       </c>
       <c r="D68">
-        <v>0.2706191337476128</v>
-      </c>
-    </row>
-    <row r="69" spans="1:4">
+        <v>0.2614676030459436</v>
+      </c>
+      <c r="E68">
+        <v>0.08804360525593158</v>
+      </c>
+      <c r="F68">
+        <v>0.002129752716528171</v>
+      </c>
+    </row>
+    <row r="69" spans="1:6">
       <c r="A69" s="1" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="B69">
-        <v>-0.03982992077960281</v>
+        <v>0.03834008338473471</v>
       </c>
       <c r="C69">
-        <v>-0.001860531708663181</v>
+        <v>0.001244388183831154</v>
       </c>
       <c r="D69">
-        <v>-0.007414119744780958</v>
-      </c>
-    </row>
-    <row r="70" spans="1:4">
+        <v>-0.00836711810385155</v>
+      </c>
+      <c r="E69">
+        <v>-0.02343841946689344</v>
+      </c>
+      <c r="F69">
+        <v>-0.0006813603844245158</v>
+      </c>
+    </row>
+    <row r="70" spans="1:6">
       <c r="A70" s="1" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="B70">
-        <v>-0.06595760419198823</v>
+        <v>0.0662159605437609</v>
       </c>
       <c r="C70">
-        <v>0.02460641484093922</v>
+        <v>-0.02744797173197911</v>
       </c>
       <c r="D70">
-        <v>0.0065607896512135</v>
-      </c>
-    </row>
-    <row r="71" spans="1:4">
+        <v>-0.02508504613241626</v>
+      </c>
+      <c r="E70">
+        <v>0.03084972558182738</v>
+      </c>
+      <c r="F70">
+        <v>0.1764057025515871</v>
+      </c>
+    </row>
+    <row r="71" spans="1:6">
       <c r="A71" s="1" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="B71">
-        <v>-0.1237189107562477</v>
+        <v>0.1363540224466438</v>
       </c>
       <c r="C71">
-        <v>-0.02551299875784896</v>
+        <v>0.03751859272182279</v>
       </c>
       <c r="D71">
-        <v>0.2857523758398243</v>
-      </c>
-    </row>
-    <row r="72" spans="1:4">
+        <v>0.2722631990669481</v>
+      </c>
+      <c r="E71">
+        <v>0.09853618492701041</v>
+      </c>
+      <c r="F71">
+        <v>-0.004081996704153398</v>
+      </c>
+    </row>
+    <row r="72" spans="1:6">
       <c r="A72" s="1" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="B72">
-        <v>-0.138130938704607</v>
+        <v>0.1438182471265136</v>
       </c>
       <c r="C72">
-        <v>-0.02789863222513262</v>
+        <v>0.02754575994974882</v>
       </c>
       <c r="D72">
-        <v>-0.004765862639222899</v>
-      </c>
-    </row>
-    <row r="73" spans="1:4">
+        <v>0.004723119009450717</v>
+      </c>
+      <c r="E72">
+        <v>-0.03660091654363701</v>
+      </c>
+      <c r="F72">
+        <v>-0.03082828702190828</v>
+      </c>
+    </row>
+    <row r="73" spans="1:6">
       <c r="A73" s="1" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="B73">
-        <v>-0.2079274430389123</v>
+        <v>0.2046243956766132</v>
       </c>
       <c r="C73">
-        <v>-0.01738581322003829</v>
+        <v>0.01351438784702476</v>
       </c>
       <c r="D73">
-        <v>-0.01258603541406077</v>
-      </c>
-    </row>
-    <row r="74" spans="1:4">
+        <v>-0.01771715074531161</v>
+      </c>
+      <c r="E73">
+        <v>-0.06490389721140148</v>
+      </c>
+      <c r="F73">
+        <v>-0.03948408795058963</v>
+      </c>
+    </row>
+    <row r="74" spans="1:6">
       <c r="A74" s="1" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="B74">
-        <v>-0.09344799735082479</v>
+        <v>0.09516812734240514</v>
       </c>
       <c r="C74">
-        <v>-0.01405871862750325</v>
+        <v>0.01385165891427458</v>
       </c>
       <c r="D74">
-        <v>-0.02024224759492404</v>
-      </c>
-    </row>
-    <row r="75" spans="1:4">
+        <v>-0.01607935004369395</v>
+      </c>
+      <c r="E74">
+        <v>-0.0435193855423147</v>
+      </c>
+      <c r="F74">
+        <v>-0.05523151418370179</v>
+      </c>
+    </row>
+    <row r="75" spans="1:6">
       <c r="A75" s="1" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="B75">
-        <v>-0.1336548860137432</v>
+        <v>0.1271267134325674</v>
       </c>
       <c r="C75">
-        <v>-0.03035197574115531</v>
+        <v>0.02877504809828711</v>
       </c>
       <c r="D75">
-        <v>-0.02977603610005266</v>
-      </c>
-    </row>
-    <row r="76" spans="1:4">
+        <v>-0.0285108077383114</v>
+      </c>
+      <c r="E75">
+        <v>-0.0564159678749992</v>
+      </c>
+      <c r="F75">
+        <v>-0.02298786755650235</v>
+      </c>
+    </row>
+    <row r="76" spans="1:6">
       <c r="A76" s="1" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="B76">
         <v>0</v>
@@ -1755,360 +2211,516 @@
       <c r="D76">
         <v>0</v>
       </c>
-    </row>
-    <row r="77" spans="1:4">
+      <c r="E76">
+        <v>0</v>
+      </c>
+      <c r="F76">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77" spans="1:6">
       <c r="A77" s="1" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="B77">
-        <v>-0.08359011158257862</v>
+        <v>0.09027921411649097</v>
       </c>
       <c r="C77">
-        <v>-0.01567816868697705</v>
+        <v>0.0082697793685244</v>
       </c>
       <c r="D77">
-        <v>-0.09646835397732546</v>
-      </c>
-    </row>
-    <row r="78" spans="1:4">
+        <v>-0.1146178384961216</v>
+      </c>
+      <c r="E77">
+        <v>-0.04476574860775557</v>
+      </c>
+      <c r="F77">
+        <v>-0.03310506368037815</v>
+      </c>
+    </row>
+    <row r="78" spans="1:6">
       <c r="A78" s="1" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="B78">
-        <v>-0.1030680650081256</v>
+        <v>0.1013176907659338</v>
       </c>
       <c r="C78">
-        <v>-0.04594706656883044</v>
+        <v>0.03928727039764703</v>
       </c>
       <c r="D78">
-        <v>-0.1037120588531089</v>
-      </c>
-    </row>
-    <row r="79" spans="1:4">
+        <v>-0.1138523570731854</v>
+      </c>
+      <c r="E78">
+        <v>-0.07646472500271292</v>
+      </c>
+      <c r="F78">
+        <v>-0.05244664794717331</v>
+      </c>
+    </row>
+    <row r="79" spans="1:6">
       <c r="A79" s="1" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="B79">
-        <v>-0.164122178033963</v>
+        <v>0.1631195044120842</v>
       </c>
       <c r="C79">
-        <v>-0.02460003942137468</v>
+        <v>0.02352836856025051</v>
       </c>
       <c r="D79">
-        <v>-0.01246983628404899</v>
-      </c>
-    </row>
-    <row r="80" spans="1:4">
+        <v>-0.012129456063331</v>
+      </c>
+      <c r="E79">
+        <v>-0.04399391009999092</v>
+      </c>
+      <c r="F79">
+        <v>-0.01214758228617293</v>
+      </c>
+    </row>
+    <row r="80" spans="1:6">
       <c r="A80" s="1" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="B80">
-        <v>-0.08508513489271675</v>
+        <v>0.08229490827298667</v>
       </c>
       <c r="C80">
-        <v>-0.002286922188881911</v>
+        <v>-0.0004282488180491233</v>
       </c>
       <c r="D80">
-        <v>-0.04558402098910885</v>
-      </c>
-    </row>
-    <row r="81" spans="1:4">
+        <v>-0.05476278901789464</v>
+      </c>
+      <c r="E80">
+        <v>-0.03496840911328594</v>
+      </c>
+      <c r="F80">
+        <v>0.01913529439517743</v>
+      </c>
+    </row>
+    <row r="81" spans="1:6">
       <c r="A81" s="1" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="B81">
-        <v>-0.120404199946265</v>
+        <v>0.1180957553889064</v>
       </c>
       <c r="C81">
-        <v>-0.03238910507252641</v>
+        <v>0.03238247070748422</v>
       </c>
       <c r="D81">
-        <v>-0.02283452051571441</v>
-      </c>
-    </row>
-    <row r="82" spans="1:4">
+        <v>-0.01344925537489033</v>
+      </c>
+      <c r="E81">
+        <v>-0.05471004767179541</v>
+      </c>
+      <c r="F81">
+        <v>-0.01967822770390793</v>
+      </c>
+    </row>
+    <row r="82" spans="1:6">
       <c r="A82" s="1" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="B82">
-        <v>-0.1657495699828308</v>
+        <v>0.1658881095040519</v>
       </c>
       <c r="C82">
-        <v>-0.02547542302400355</v>
+        <v>0.0258676377506591</v>
       </c>
       <c r="D82">
-        <v>-0.01399650995927566</v>
-      </c>
-    </row>
-    <row r="83" spans="1:4">
+        <v>-0.001920096934847025</v>
+      </c>
+      <c r="E82">
+        <v>-0.02485688385023788</v>
+      </c>
+      <c r="F82">
+        <v>-0.08042725687424584</v>
+      </c>
+    </row>
+    <row r="83" spans="1:6">
       <c r="A83" s="1" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="B83">
-        <v>-0.06550227800693893</v>
+        <v>0.05820325846179236</v>
       </c>
       <c r="C83">
-        <v>-0.006284831059544234</v>
+        <v>0.003008303205741927</v>
       </c>
       <c r="D83">
-        <v>-0.03661014334940592</v>
-      </c>
-    </row>
-    <row r="84" spans="1:4">
+        <v>-0.04948627970899026</v>
+      </c>
+      <c r="E83">
+        <v>-0.002912587675070622</v>
+      </c>
+      <c r="F83">
+        <v>0.02848500114064513</v>
+      </c>
+    </row>
+    <row r="84" spans="1:6">
       <c r="A84" s="1" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="B84">
-        <v>-0.06368496342826376</v>
+        <v>0.05805612360643816</v>
       </c>
       <c r="C84">
-        <v>-0.01480915969461327</v>
+        <v>0.01089844823188483</v>
       </c>
       <c r="D84">
-        <v>-0.06603360836754169</v>
-      </c>
-    </row>
-    <row r="85" spans="1:4">
+        <v>-0.07217934084557617</v>
+      </c>
+      <c r="E84">
+        <v>-0.01429574855954788</v>
+      </c>
+      <c r="F84">
+        <v>-0.01402546896770546</v>
+      </c>
+    </row>
+    <row r="85" spans="1:6">
       <c r="A85" s="1" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B85">
-        <v>-0.1376239249184296</v>
+        <v>0.1348022275663019</v>
       </c>
       <c r="C85">
-        <v>-0.02891296509141583</v>
+        <v>0.0287251259317473</v>
       </c>
       <c r="D85">
-        <v>-0.0164106456811483</v>
-      </c>
-    </row>
-    <row r="86" spans="1:4">
+        <v>-0.008654317224299671</v>
+      </c>
+      <c r="E85">
+        <v>-0.03542420948907689</v>
+      </c>
+      <c r="F85">
+        <v>-0.04680564709521584</v>
+      </c>
+    </row>
+    <row r="86" spans="1:6">
       <c r="A86" s="1" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="B86">
-        <v>-0.1002303963282057</v>
+        <v>0.09253286115887395</v>
       </c>
       <c r="C86">
-        <v>0.003286489215245706</v>
+        <v>-0.006368163737137843</v>
       </c>
       <c r="D86">
-        <v>-0.003095964288153552</v>
-      </c>
-    </row>
-    <row r="87" spans="1:4">
+        <v>-0.0499009970413769</v>
+      </c>
+      <c r="E86">
+        <v>-0.239862205549787</v>
+      </c>
+      <c r="F86">
+        <v>0.9039922874072251</v>
+      </c>
+    </row>
+    <row r="87" spans="1:6">
       <c r="A87" s="1" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="B87">
-        <v>-0.09962366992249989</v>
+        <v>0.09344269656394222</v>
       </c>
       <c r="C87">
-        <v>-0.02858715472612563</v>
+        <v>0.01926983852477294</v>
       </c>
       <c r="D87">
-        <v>-0.06808900441466842</v>
-      </c>
-    </row>
-    <row r="88" spans="1:4">
+        <v>-0.09502046261703646</v>
+      </c>
+      <c r="E87">
+        <v>0.05239686319256193</v>
+      </c>
+      <c r="F87">
+        <v>-0.04767014457210269</v>
+      </c>
+    </row>
+    <row r="88" spans="1:6">
       <c r="A88" s="1" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B88">
-        <v>-0.06029464947637082</v>
+        <v>0.06021008485563647</v>
       </c>
       <c r="C88">
-        <v>-0.005280698198452667</v>
+        <v>0.0023145491849483</v>
       </c>
       <c r="D88">
-        <v>-0.05436636649620483</v>
-      </c>
-    </row>
-    <row r="89" spans="1:4">
+        <v>-0.04945291174908645</v>
+      </c>
+      <c r="E88">
+        <v>-0.02407655034167466</v>
+      </c>
+      <c r="F88">
+        <v>-0.01525155957160462</v>
+      </c>
+    </row>
+    <row r="89" spans="1:6">
       <c r="A89" s="1" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B89">
-        <v>-0.1166623816287275</v>
+        <v>0.1268609328523868</v>
       </c>
       <c r="C89">
-        <v>-0.002773609433474879</v>
+        <v>0.01277608649214399</v>
       </c>
       <c r="D89">
-        <v>0.2603920050593967</v>
-      </c>
-    </row>
-    <row r="90" spans="1:4">
+        <v>0.2449661246686361</v>
+      </c>
+      <c r="E89">
+        <v>0.0913254486452766</v>
+      </c>
+      <c r="F89">
+        <v>0.01113048516254135</v>
+      </c>
+    </row>
+    <row r="90" spans="1:6">
       <c r="A90" s="1" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B90">
-        <v>-0.1351541553590221</v>
+        <v>0.1504652037029511</v>
       </c>
       <c r="C90">
-        <v>-0.02217629821347073</v>
+        <v>0.03426463643485533</v>
       </c>
       <c r="D90">
-        <v>0.2742932360379939</v>
-      </c>
-    </row>
-    <row r="91" spans="1:4">
+        <v>0.2684652819605766</v>
+      </c>
+      <c r="E90">
+        <v>0.1135649526954602</v>
+      </c>
+      <c r="F90">
+        <v>0.01203377301478349</v>
+      </c>
+    </row>
+    <row r="91" spans="1:6">
       <c r="A91" s="1" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B91">
-        <v>-0.1200533717666498</v>
+        <v>0.1213238363776677</v>
       </c>
       <c r="C91">
-        <v>-0.01963334096397646</v>
+        <v>0.02038722017221552</v>
       </c>
       <c r="D91">
-        <v>0.007101641071117352</v>
-      </c>
-    </row>
-    <row r="92" spans="1:4">
+        <v>0.01715762920916325</v>
+      </c>
+      <c r="E91">
+        <v>-0.05417488491528979</v>
+      </c>
+      <c r="F91">
+        <v>0.0007532660003340311</v>
+      </c>
+    </row>
+    <row r="92" spans="1:6">
       <c r="A92" s="1" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="B92">
-        <v>-0.1365437230639931</v>
+        <v>0.1469640987041609</v>
       </c>
       <c r="C92">
-        <v>-0.01229313945859886</v>
+        <v>0.02473861401233467</v>
       </c>
       <c r="D92">
-        <v>0.3053787022299035</v>
-      </c>
-    </row>
-    <row r="93" spans="1:4">
+        <v>0.2898333259925299</v>
+      </c>
+      <c r="E92">
+        <v>0.1025528086185477</v>
+      </c>
+      <c r="F92">
+        <v>0.02061313229801612</v>
+      </c>
+    </row>
+    <row r="93" spans="1:6">
       <c r="A93" s="1" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B93">
-        <v>-0.1381923264744091</v>
+        <v>0.1516210648940382</v>
       </c>
       <c r="C93">
-        <v>-0.01782391342859244</v>
+        <v>0.02915364611518179</v>
       </c>
       <c r="D93">
-        <v>0.2693269209994584</v>
-      </c>
-    </row>
-    <row r="94" spans="1:4">
+        <v>0.2646627031470761</v>
+      </c>
+      <c r="E93">
+        <v>0.07607997294635883</v>
+      </c>
+      <c r="F93">
+        <v>0.001206052620763105</v>
+      </c>
+    </row>
+    <row r="94" spans="1:6">
       <c r="A94" s="1" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="B94">
-        <v>-0.1342771425597771</v>
+        <v>0.1278148773839521</v>
       </c>
       <c r="C94">
-        <v>-0.02732853846175753</v>
+        <v>0.02513824757236999</v>
       </c>
       <c r="D94">
-        <v>-0.04344787656856892</v>
-      </c>
-    </row>
-    <row r="95" spans="1:4">
+        <v>-0.04020030885109618</v>
+      </c>
+      <c r="E94">
+        <v>-0.05654384832570342</v>
+      </c>
+      <c r="F94">
+        <v>-0.03585607914428682</v>
+      </c>
+    </row>
+    <row r="95" spans="1:6">
       <c r="A95" s="1" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="B95">
-        <v>-0.1253528262200692</v>
+        <v>0.1258947336068881</v>
       </c>
       <c r="C95">
-        <v>-0.01016008577492096</v>
+        <v>0.00313827942930748</v>
       </c>
       <c r="D95">
-        <v>-0.0789587256501957</v>
-      </c>
-    </row>
-    <row r="96" spans="1:4">
+        <v>-0.09853877409060875</v>
+      </c>
+      <c r="E95">
+        <v>-0.05329874575189684</v>
+      </c>
+      <c r="F95">
+        <v>0.004918295433411706</v>
+      </c>
+    </row>
+    <row r="96" spans="1:6">
       <c r="A96" s="1" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B96">
-        <v>-0.1202862611397775</v>
+        <v>0.1118829367984759</v>
       </c>
       <c r="C96">
-        <v>0.9869493039534381</v>
+        <v>-0.986861184458551</v>
       </c>
       <c r="D96">
-        <v>0.01035828724469052</v>
-      </c>
-    </row>
-    <row r="97" spans="1:4">
+        <v>0.05110022764272119</v>
+      </c>
+      <c r="E96">
+        <v>-0.05195360535464968</v>
+      </c>
+      <c r="F96">
+        <v>-0.0427791349492327</v>
+      </c>
+    </row>
+    <row r="97" spans="1:6">
       <c r="A97" s="1" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="B97">
-        <v>-0.1935875889359744</v>
+        <v>0.1939647755258585</v>
       </c>
       <c r="C97">
-        <v>0.005839913136140845</v>
+        <v>-0.005883250500647747</v>
       </c>
       <c r="D97">
-        <v>0.01455042952906659</v>
-      </c>
-    </row>
-    <row r="98" spans="1:4">
+        <v>0.02093547170703576</v>
+      </c>
+      <c r="E97">
+        <v>-0.0213824123153471</v>
+      </c>
+      <c r="F97">
+        <v>0.09168803799724885</v>
+      </c>
+    </row>
+    <row r="98" spans="1:6">
       <c r="A98" s="1" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="B98">
-        <v>-0.1994259508768053</v>
+        <v>0.2067442175334787</v>
       </c>
       <c r="C98">
-        <v>-0.01172377247641035</v>
+        <v>0.007391835473533274</v>
       </c>
       <c r="D98">
-        <v>-0.008655274016000804</v>
-      </c>
-    </row>
-    <row r="99" spans="1:4">
+        <v>-0.01338789336312698</v>
+      </c>
+      <c r="E98">
+        <v>0.0750023362820003</v>
+      </c>
+      <c r="F98">
+        <v>0.09083413678924808</v>
+      </c>
+    </row>
+    <row r="99" spans="1:6">
       <c r="A99" s="1" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="B99">
-        <v>-0.05597860457998063</v>
+        <v>0.05536730741131542</v>
       </c>
       <c r="C99">
-        <v>0.001868474201246038</v>
+        <v>-0.004264174680184501</v>
       </c>
       <c r="D99">
-        <v>-0.02448158738673261</v>
-      </c>
-    </row>
-    <row r="100" spans="1:4">
+        <v>-0.03854163205868749</v>
+      </c>
+      <c r="E99">
+        <v>-0.02180697705231338</v>
+      </c>
+      <c r="F99">
+        <v>-0.003437151074995141</v>
+      </c>
+    </row>
+    <row r="100" spans="1:6">
       <c r="A100" s="1" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="B100">
-        <v>-0.1416951101172189</v>
+        <v>0.1285186596450738</v>
       </c>
       <c r="C100">
-        <v>0.03740381408173483</v>
+        <v>-0.05232521140371394</v>
       </c>
       <c r="D100">
-        <v>-0.414829246081705</v>
-      </c>
-    </row>
-    <row r="101" spans="1:4">
+        <v>-0.351429916509175</v>
+      </c>
+      <c r="E100">
+        <v>0.8829021966658492</v>
+      </c>
+      <c r="F100">
+        <v>0.1666232278198224</v>
+      </c>
+    </row>
+    <row r="101" spans="1:6">
       <c r="A101" s="1" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="B101">
-        <v>-0.02552414804996866</v>
+        <v>0.02846864412316377</v>
       </c>
       <c r="C101">
-        <v>-0.009722770830786069</v>
+        <v>0.00878762038832445</v>
       </c>
       <c r="D101">
-        <v>-0.0238539070145088</v>
-      </c>
-    </row>
-    <row r="102" spans="1:4">
+        <v>-0.0306248261087309</v>
+      </c>
+      <c r="E101">
+        <v>-0.01300841563846093</v>
+      </c>
+      <c r="F101">
+        <v>0.01412390405661526</v>
+      </c>
+    </row>
+    <row r="102" spans="1:6">
       <c r="A102" s="1" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B102">
         <v>0</v>
@@ -2119,10 +2731,16 @@
       <c r="D102">
         <v>0</v>
       </c>
-    </row>
-    <row r="103" spans="1:4">
+      <c r="E102">
+        <v>0</v>
+      </c>
+      <c r="F102">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="103" spans="1:6">
       <c r="A103" s="1" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="B103">
         <v>0</v>
@@ -2133,10 +2751,16 @@
       <c r="D103">
         <v>0</v>
       </c>
-    </row>
-    <row r="104" spans="1:4">
+      <c r="E103">
+        <v>0</v>
+      </c>
+      <c r="F103">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:6">
       <c r="A104" s="1" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B104">
         <v>0</v>
@@ -2145,6 +2769,12 @@
         <v>0</v>
       </c>
       <c r="D104">
+        <v>0</v>
+      </c>
+      <c r="E104">
+        <v>0</v>
+      </c>
+      <c r="F104">
         <v>0</v>
       </c>
     </row>
